--- a/mapping/Fungi.xlsx
+++ b/mapping/Fungi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -628,528 +628,624 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Fusarium</t>
+          <t>Ascochyta</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>镰孢属</t>
+          <t>壳二孢属</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Malassezia</t>
+          <t>Fusarium</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>马拉色菌属</t>
+          <t>镰孢属</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Wickerhamomyces</t>
+          <t>Malassezia</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>威克汉姆酵母属</t>
+          <t>马拉色菌属</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Flammulina</t>
+          <t>Meyerozyma</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>金针菇属</t>
+          <t>梅耶酵母属</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Shiraia</t>
+          <t>Macroventuria</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>竹黄属</t>
+          <t>大孢黑星菌属</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Parastagonospora</t>
+          <t>Wickerhamomyces</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>副针孢属</t>
+          <t>威克汉姆酵母属</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Didymella</t>
+          <t>Pseudozyma</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>亚隔孢壳属</t>
+          <t>假针酵母属</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Botrytis</t>
+          <t>Mangifericomes</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>灰霉属</t>
+          <t>芒果生菌属</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Schizosaccharomyces</t>
+          <t>Flammulina</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>裂殖酵母属</t>
+          <t>金针菇属</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Brettanomyces</t>
+          <t>Shiraia</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>酒香酵母属</t>
+          <t>竹黄属</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Kodamaea</t>
+          <t>Parastagonospora</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>小玉酵母属</t>
+          <t>副针孢属</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Rhodofomes</t>
+          <t>Didymella</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>红缘拟层孔菌属</t>
+          <t>亚隔孢壳属</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Wickerhamiella</t>
+          <t>Botrytis</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>威克汉姆酵母属</t>
+          <t>灰霉属</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trichoderma</t>
+          <t>Schizosaccharomyces</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>木霉属</t>
+          <t>裂殖酵母属</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Olpidium</t>
+          <t>Brettanomyces</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>油壶菌属</t>
+          <t>酒香酵母属</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Piptocephalis</t>
+          <t>Kodamaea</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>头珠霉属</t>
+          <t>小玉酵母属</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Hirsutella</t>
+          <t>Rhodofomes</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>被毛孢属</t>
+          <t>红缘拟层孔菌属</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Puccinia</t>
+          <t>Wickerhamiella</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>柄锈菌属</t>
+          <t>威克汉姆酵母属</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Pandora</t>
+          <t>Trichoderma</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>虫瘟霉属</t>
+          <t>木霉属</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Marasmius</t>
+          <t>Olpidium</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>小皮伞属</t>
+          <t>油壶菌属</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sporisorium</t>
+          <t>Piptocephalis</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>轴黑粉菌属</t>
+          <t>头珠霉属</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Exophiala</t>
+          <t>Hirsutella</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>外瓶霉属</t>
+          <t>被毛孢属</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Pontogeneia</t>
+          <t>Puccinia</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>滨跳虾属</t>
+          <t>柄锈菌属</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Phyllosticta</t>
+          <t>Pandora</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>叶点霉属</t>
+          <t>虫瘟霉属</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Spizellomyces</t>
+          <t>Marasmius</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>油壶菌属</t>
+          <t>小皮伞属</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Mucor</t>
+          <t>Sporisorium</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>毛霉属</t>
+          <t>轴黑粉菌属</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Colletotrichum</t>
+          <t>Exophiala</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>炭疽菌属</t>
+          <t>外瓶霉属</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Goffeauzyma</t>
+          <t>Pontogeneia</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>戈氏酵母属</t>
+          <t>滨跳虾属</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Fimicolochytrium</t>
+          <t>Phyllosticta</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>粪生壶菌属</t>
+          <t>叶点霉属</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Moniliella</t>
+          <t>Spizellomyces</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>粉孢酵母属</t>
+          <t>油壶菌属</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mitosporidium</t>
+          <t>Mucor</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>丝孢虫属</t>
+          <t>毛霉属</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Synchytrium</t>
+          <t>Colletotrichum</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>集壶菌属</t>
+          <t>炭疽菌属</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Kwoniella</t>
+          <t>Goffeauzyma</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>奎尼酵母属</t>
+          <t>戈氏酵母属</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Mangifericomes</t>
+          <t>Fimicolochytrium</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>芒果球菌属</t>
+          <t>粪生壶菌属</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Curvularia</t>
+          <t>Moniliella</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>弯孢霉属</t>
+          <t>粉孢酵母属</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Annulohypoxylon</t>
+          <t>Mitosporidium</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>轮层炭壳属</t>
+          <t>丝孢虫属</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Beauveria</t>
+          <t>Synchytrium</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>白僵菌属</t>
+          <t>集壶菌属</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Cystobasidium</t>
+          <t>Rozella</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>囊担子菌属</t>
+          <t>罗兹壶菌属</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Didymosphaeria</t>
+          <t>Eremothecium</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>双球腔菌属</t>
+          <t>散囊酵母属</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Lecanicillium</t>
+          <t>Scheffersomyces</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>叶孢霉属</t>
+          <t>谢弗酵母属</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Cordyceps</t>
+          <t>Metarhizium</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>虫草属</t>
+          <t>绿僵菌属</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Filobasidium</t>
+          <t>Paranannizziopsis</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>丝孢酵母属</t>
+          <t>拟纳尼兹菌属</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Gamsiella</t>
+          <t>Kwoniella</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>加姆斯菌属</t>
+          <t>奎尼酵母属</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Rozella</t>
+          <t>Curvularia</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>罗兹壶菌属</t>
+          <t>弯孢霉属</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Annulohypoxylon</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>轮层炭壳属</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Beauveria</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>白僵菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Cystobasidium</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>囊担子菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Didymosphaeria</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>双球腔菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Lecanicillium</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>叶孢霉属</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Cordyceps</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>虫草属</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Filobasidium</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>丝孢酵母属</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Gamsiella</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>加姆斯菌属</t>
         </is>
       </c>
     </row>

--- a/mapping/Fungi.xlsx
+++ b/mapping/Fungi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1204,48 +1204,84 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Lecanicillium</t>
+          <t>Laccaria</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>叶孢霉属</t>
+          <t>蜡蘑属</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Cordyceps</t>
+          <t>Crepidotus</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>虫草属</t>
+          <t>靴耳属</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Filobasidium</t>
+          <t>Lecanicillium</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>丝孢酵母属</t>
+          <t>叶孢霉属</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>Cordyceps</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>虫草属</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Filobasidium</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>丝孢酵母属</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
           <t>Gamsiella</t>
         </is>
       </c>
-      <c r="B69" t="inlineStr">
+      <c r="B71" t="inlineStr">
         <is>
           <t>加姆斯菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Melampsora</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>栅锈菌属</t>
         </is>
       </c>
     </row>

--- a/mapping/Fungi.xlsx
+++ b/mapping/Fungi.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B72"/>
+  <dimension ref="A1:B79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -808,478 +808,562 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Kodamaea</t>
+          <t>Suillus</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>小玉酵母属</t>
+          <t>乳牛肝菌属</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Rhodofomes</t>
+          <t>Allomyces</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>红缘拟层孔菌属</t>
+          <t>异水霉属</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Wickerhamiella</t>
+          <t>Tremella</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>威克汉姆酵母属</t>
+          <t>银耳属</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Trichoderma</t>
+          <t>Apiotrichum</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>木霉属</t>
+          <t>枝丝酵母属</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Olpidium</t>
+          <t>Hirsutella</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>油壶菌属</t>
+          <t>被毛孢属</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Piptocephalis</t>
+          <t>Kappamyces</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>头珠霉属</t>
+          <t>卡帕真菌属</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Hirsutella</t>
+          <t>Rozella</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>被毛孢属</t>
+          <t>罗兹壶菌属</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Puccinia</t>
+          <t>Rhizophagus</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>柄锈菌属</t>
+          <t>根孢囊霉属</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Pandora</t>
+          <t>Fimicolochytrium</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>虫瘟霉属</t>
+          <t>粪生壶菌属</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Marasmius</t>
+          <t>Mitosporidium</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>小皮伞属</t>
+          <t>丝孢虫属</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Sporisorium</t>
+          <t>Ceratocystis</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>轴黑粉菌属</t>
+          <t>长喙壳属</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Exophiala</t>
+          <t>Kodamaea</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>外瓶霉属</t>
+          <t>小玉酵母属</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Pontogeneia</t>
+          <t>Rhodofomes</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>滨跳虾属</t>
+          <t>红缘拟层孔菌属</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Phyllosticta</t>
+          <t>Wickerhamiella</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>叶点霉属</t>
+          <t>威克汉姆酵母属</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Spizellomyces</t>
+          <t>Trichoderma</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>油壶菌属</t>
+          <t>木霉属</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Mucor</t>
+          <t>Olpidium</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>毛霉属</t>
+          <t>油壶菌属</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Colletotrichum</t>
+          <t>Piptocephalis</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>炭疽菌属</t>
+          <t>头珠霉属</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Goffeauzyma</t>
+          <t>Puccinia</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>戈氏酵母属</t>
+          <t>柄锈菌属</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Fimicolochytrium</t>
+          <t>Pandora</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>粪生壶菌属</t>
+          <t>虫瘟霉属</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Moniliella</t>
+          <t>Marasmius</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>粉孢酵母属</t>
+          <t>小皮伞属</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Mitosporidium</t>
+          <t>Sporisorium</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>丝孢虫属</t>
+          <t>轴黑粉菌属</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Synchytrium</t>
+          <t>Exophiala</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>集壶菌属</t>
+          <t>外瓶霉属</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Rozella</t>
+          <t>Pontogeneia</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>罗兹壶菌属</t>
+          <t>滨跳虾属</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Eremothecium</t>
+          <t>Phyllosticta</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>散囊酵母属</t>
+          <t>叶点霉属</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Scheffersomyces</t>
+          <t>Spizellomyces</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>谢弗酵母属</t>
+          <t>油壶菌属</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Metarhizium</t>
+          <t>Mucor</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>绿僵菌属</t>
+          <t>毛霉属</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Paranannizziopsis</t>
+          <t>Colletotrichum</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>拟纳尼兹菌属</t>
+          <t>炭疽菌属</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kwoniella</t>
+          <t>Goffeauzyma</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>奎尼酵母属</t>
+          <t>戈氏酵母属</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Curvularia</t>
+          <t>Moniliella</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>弯孢霉属</t>
+          <t>粉孢酵母属</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Annulohypoxylon</t>
+          <t>Synchytrium</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>轮层炭壳属</t>
+          <t>集壶菌属</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Beauveria</t>
+          <t>Eremothecium</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>白僵菌属</t>
+          <t>散囊酵母属</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Cystobasidium</t>
+          <t>Scheffersomyces</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>囊担子菌属</t>
+          <t>谢弗酵母属</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Didymosphaeria</t>
+          <t>Metarhizium</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>双球腔菌属</t>
+          <t>绿僵菌属</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Laccaria</t>
+          <t>Paranannizziopsis</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>蜡蘑属</t>
+          <t>拟纳尼兹菌属</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Crepidotus</t>
+          <t>Kwoniella</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>靴耳属</t>
+          <t>奎尼酵母属</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Lecanicillium</t>
+          <t>Curvularia</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>叶孢霉属</t>
+          <t>弯孢霉属</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Cordyceps</t>
+          <t>Annulohypoxylon</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>虫草属</t>
+          <t>轮层炭壳属</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Filobasidium</t>
+          <t>Beauveria</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>丝孢酵母属</t>
+          <t>白僵菌属</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Gamsiella</t>
+          <t>Cystobasidium</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>加姆斯菌属</t>
+          <t>囊担子菌属</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
+          <t>Didymosphaeria</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>双球腔菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Laccaria</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>蜡蘑属</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Crepidotus</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>靴耳属</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Lecanicillium</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>叶孢霉属</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Cordyceps</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>虫草属</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Filobasidium</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>丝孢酵母属</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Gamsiella</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>加姆斯菌属</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
           <t>Melampsora</t>
         </is>
       </c>
-      <c r="B72" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>栅锈菌属</t>
         </is>
